--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009859</t>
-  </si>
-  <si>
-    <t>005119</t>
-  </si>
-  <si>
-    <t>银华乐享混合</t>
-  </si>
-  <si>
-    <t>银华智荟内在价值灵活配置混合</t>
-  </si>
-  <si>
-    <t>18.61</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>81.12</t>
-  </si>
-  <si>
-    <t>93.29</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>5.46</t>
-  </si>
-  <si>
-    <t>0.8281</t>
-  </si>
-  <si>
-    <t>0.1043</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,987 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.21</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1485,13 +1528,761 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2213,7 +2214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,17 +2225,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2244,14 +2265,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.93</v>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2260,14 +2303,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.21</v>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2276,13 +2341,817 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3066,7 +3067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3077,17 +3078,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3097,14 +3118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3113,14 +3156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.93</v>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3129,14 +3194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.21</v>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3145,13 +3232,1785 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,133 +455,1959 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009859</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华乐享混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8281</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005119</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华智荟内在价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1043</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -608,7 +2434,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +2464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>005119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>银华智荟内在价值灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8219</t>
+          <t>0.4293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +2502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>009859</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>银华乐享混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.64</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3160</t>
+          <t>0.4215</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -714,36 +2540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009859</t>
+          <t>013757</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华乐享混合</t>
+          <t>泰信均衡价值混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5264</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -752,36 +2578,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>011273</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>泰信景气驱动12个月持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>72.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3607</t>
+          <t>0.0660</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -790,36 +2616,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005119</t>
+          <t>010828</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华智荟内在价值灵活配置混合</t>
+          <t>国寿安保稳悦混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.07</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3236</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -828,36 +2654,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安鼎泰灵活配置混合（LOF）</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>76.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -866,32 +2692,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>013758</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>泰信均衡价值混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3088</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -904,32 +2730,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009008</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安科技创新混合A</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.38</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2971</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -942,36 +2768,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2717</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -980,36 +2806,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1416</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1018,32 +2844,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.09</t>
+          <t>64.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1295</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1056,36 +2882,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>167002</t>
+          <t>011274</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
+          <t>泰信景气驱动12个月持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>72.67</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0874</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1094,36 +2920,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011273</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
+          <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>76.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1132,36 +2958,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009009</t>
+          <t>003646</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安科技创新混合C</t>
+          <t>创金合信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.38</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1170,36 +2996,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>010829</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>国寿安保稳悦混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0344</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1208,36 +3034,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005708</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国联安远见成长混合</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>61.06</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1246,36 +3072,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1284,36 +3110,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>004359</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>创金合信量化核心混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1322,36 +3148,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1360,36 +3186,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>005021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.63</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1398,36 +3224,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>015407</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>国寿安保稳弘混合E</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.63</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +3259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2209,7 +4033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2236,7 +4060,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2266,36 +4090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005119</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华智荟内在价值灵活配置混合</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4293</t>
+          <t>2.8219</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2304,36 +4128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009859</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华乐享混合</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>18.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4215</t>
+          <t>1.3160</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2342,36 +4166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013757</t>
+          <t>009859</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合A</t>
+          <t>银华乐享混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.14</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.5264</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2380,36 +4204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011273</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.3607</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2418,36 +4242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010828</t>
+          <t>005119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合A</t>
+          <t>银华智荟内在价值灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.3236</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2456,36 +4280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>167001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.41</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.3136</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2494,32 +4318,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013758</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合C</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>59.14</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.3088</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2532,32 +4356,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>009008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>平安科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.25</t>
+          <t>87.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.2971</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2570,36 +4394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.2717</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2608,36 +4432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36.25</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.1416</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2646,32 +4470,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>64.13</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2684,36 +4508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>167002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
+          <t>平安鼎越灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2722,36 +4546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>011273</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>泰信景气驱动12个月持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.41</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0850</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2760,36 +4584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>009009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>平安科技创新混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>87.38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2798,36 +4622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010829</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合C</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>79.63</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0344</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2836,36 +4660,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>005708</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>国联安远见成长混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>61.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2874,36 +4698,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>011274</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>泰信景气驱动12个月持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88.74</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2912,36 +4736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004359</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信量化核心混合A</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2950,36 +4774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2988,36 +4812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>81.63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -3026,1876 +4850,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>015407</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合E</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36.25</t>
+          <t>81.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6949</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001704</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银进宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1988</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5733</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009808</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达创新成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5300</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010115</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4513</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012148</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银产业趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4198</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>36.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3866</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012149</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银产业趋势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>19.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8501</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501080</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7390</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009859</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华乐享混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5895</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005119</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华智荟内在价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5882</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001076</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达改革红利混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4560</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4252</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011891</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达先锋成长混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3390</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>121003</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银核心企业混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3271</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011412</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2840</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2302</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2253</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2253</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>75.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1946</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013842</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银华新锐成长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1758</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010779</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1729</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000165</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国投瑞银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>74.66</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1433</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>163503</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>天治核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1285</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1120</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>013757</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰信均衡价值混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.82</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0933</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011273</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0839</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013843</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>银华新锐成长混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0643</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011892</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>89.43</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>013758</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>泰信均衡价值混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>86.82</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011274</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.43</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002020</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国都创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>015245</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>南华丰汇混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4909,112 +4893,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.41</v>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.93</v>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>19.41</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>8.93</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.93</v>
       </c>
     </row>
@@ -566,6 +583,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5653</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2407,7 +3772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3259,7 +4624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4033,7 +5398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4887,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000762-西藏矿业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>12.85</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>19.41</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>8.93</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.21</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.93</v>
       </c>
     </row>
@@ -583,6 +600,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1930,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3772,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4624,7 +6027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5398,7 +6801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6252,7 +7655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
